--- a/output_analysis/MonteCarlo_Analysis.xlsx
+++ b/output_analysis/MonteCarlo_Analysis.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/MonteCarlo-ExpectedGoals/output_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC67652-8AA3-BA41-8D35-22BE5C67C937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EE33A6-FCB3-0B4B-8D45-A7F32FE344AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33880" yWindow="-80" windowWidth="28040" windowHeight="16400" xr2:uid="{EF93AFF9-844E-B449-956A-180E05EC6FEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="46">
   <si>
     <t>MatchID</t>
   </si>
@@ -168,6 +169,12 @@
   </si>
   <si>
     <t>0-0</t>
+  </si>
+  <si>
+    <t>Peru vs Denmark</t>
+  </si>
+  <si>
+    <t>Game</t>
   </si>
 </sst>
 </file>
@@ -175,7 +182,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -286,15 +293,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -303,56 +310,53 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ADE14B-8F50-A849-85D4-3272AE03BED9}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1053,23 +1057,23 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -1183,7 +1187,7 @@
       <c r="A25" s="5">
         <v>3</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C25" s="5">
@@ -1193,7 +1197,7 @@
       <c r="E25" s="5">
         <v>3</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="5">
@@ -1203,7 +1207,7 @@
       <c r="I25" s="5">
         <v>3</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>12</v>
       </c>
       <c r="K25" s="9">
@@ -1244,80 +1248,80 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="22" t="s">
+      <c r="E32" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G32" s="23" t="s">
+      <c r="G32" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="H32" s="23" t="s">
+      <c r="H32" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="I32" s="22" t="s">
+      <c r="I32" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="24" t="s">
+      <c r="L32" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="14">
+      <c r="A33" s="13">
         <v>7530</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="15">
         <v>0.51180000000000003</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="15">
         <v>0.35170000000000001</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="15">
         <v>0.13650000000000001</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>0.49380000000000002</v>
       </c>
-      <c r="H33" s="16">
+      <c r="H33" s="15">
         <v>0.50619999999999998</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="16">
         <v>1.8871</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="16">
         <v>0.76119999999999999</v>
       </c>
-      <c r="K33" s="25" t="s">
+      <c r="K33" s="23" t="s">
         <v>37</v>
       </c>
       <c r="L33" t="s">
@@ -1325,34 +1329,34 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="14">
+      <c r="A34" s="13">
         <v>7532</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="15">
         <v>0.58099999999999996</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="15">
         <v>0.2477</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>0.17130000000000001</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>0.63019999999999998</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="15">
         <v>0.36980000000000002</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="16">
         <v>1.9906999999999999</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="16">
         <v>0.76160000000000005</v>
       </c>
       <c r="K34" t="s">
@@ -1363,34 +1367,34 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="14">
+      <c r="A35" s="13">
         <v>7546</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="15">
         <v>6.2100000000000002E-2</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="15">
         <v>0.18679999999999999</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="15">
         <v>0.75109999999999999</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G35" s="15">
         <v>0.45240000000000002</v>
       </c>
-      <c r="H35" s="16">
+      <c r="H35" s="15">
         <v>0.54759999999999998</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="16">
         <v>0.37309999999999999</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="16">
         <v>2.4401000000000002</v>
       </c>
       <c r="K35" t="s">
@@ -1401,37 +1405,37 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="14">
+      <c r="A36" s="13">
         <v>7547</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="15">
         <v>0.22070000000000001</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="15">
         <v>0.30099999999999999</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="15">
         <v>0.4783</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>0.43680000000000002</v>
       </c>
-      <c r="H36" s="16">
+      <c r="H36" s="15">
         <v>0.56320000000000003</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="16">
         <v>0.96309999999999996</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="16">
         <v>1.7359</v>
       </c>
-      <c r="K36" s="25" t="s">
+      <c r="K36" s="23" t="s">
         <v>41</v>
       </c>
       <c r="L36" t="s">
@@ -1439,34 +1443,34 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="14">
+      <c r="A37" s="13">
         <v>7562</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>0.72340000000000004</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="15">
         <v>0.2155</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="15">
         <v>6.1100000000000002E-2</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>0.31109999999999999</v>
       </c>
-      <c r="H37" s="16">
+      <c r="H37" s="15">
         <v>0.68889999999999996</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="16">
         <v>2.3856999999999999</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="16">
         <v>0.39879999999999999</v>
       </c>
       <c r="K37" t="s">
@@ -1477,34 +1481,34 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="18">
+      <c r="A38" s="17">
         <v>7563</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="20">
+      <c r="D38" s="19">
         <v>0.31490000000000001</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="19">
         <v>0.59899999999999998</v>
       </c>
-      <c r="F38" s="20">
+      <c r="F38" s="19">
         <v>8.6099999999999996E-2</v>
       </c>
-      <c r="G38" s="20">
+      <c r="G38" s="19">
         <v>1.72E-2</v>
       </c>
-      <c r="H38" s="20">
+      <c r="H38" s="19">
         <v>0.98280000000000001</v>
       </c>
-      <c r="I38" s="21">
+      <c r="I38" s="20">
         <v>1.5437000000000001</v>
       </c>
-      <c r="J38" s="21">
+      <c r="J38" s="20">
         <v>0.85729999999999995</v>
       </c>
       <c r="K38" t="s">
@@ -1522,4 +1526,68 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8F816D-063A-9C47-9957-F7CF1116A10D}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>7532</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D2" s="15">
+        <v>0.2477</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.17130000000000001</v>
+      </c>
+      <c r="F2" s="16">
+        <v>1.9906999999999999</v>
+      </c>
+      <c r="G2" s="16">
+        <v>0.76160000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>